--- a/Sabana Tarifación Planes Cerrados.xlsx
+++ b/Sabana Tarifación Planes Cerrados.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QV4097\Documents\vergara\Tarifacion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C164096-D6F7-426A-8939-70C8EE852F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC427FB7-957C-4A53-BB12-605DF0B9B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B13591-668B-9644-9949-56521285F75A}"/>
+    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B13591-668B-9644-9949-56521285F75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Cerrado 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="tasas_ap">'[1]Primas - Controles'!#REF!</definedName>
     <definedName name="tasas_puras">'[1]Primas - Controles'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="36">
   <si>
     <t>Cant asegurados</t>
   </si>
@@ -127,14 +131,29 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>Exito</t>
+  </si>
+  <si>
+    <t>FALLO</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de ESTADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -143,6 +162,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -164,13 +189,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,6 +217,974 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sabana Tarifación Planes Cerrados.xlsx]Hoja1!TablaDinámica1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45370744457358636"/>
+          <c:y val="0.11951565859552674"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exito</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FALLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D5E-411D-A2C4-772FE67F8E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>706755</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27889EAC-9556-91CE-570D-B9A36622A41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -213,6 +1214,336 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="QV4097" refreshedDate="45049.892345949076" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{95E5621E-30DC-4D29-A46C-706B7659811A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="V1:V81" sheet="Plan Cerrado 1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="ESTADO" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Exito"/>
+        <s v="FALLO"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A29EE32-02B7-4461-BC4E-445F73C8EDB4}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de ESTADO" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,17 +1845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D841E5DA-5C45-5145-97E1-44A8067B742F}">
   <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V2:V10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -592,7 +1925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -647,7 +1980,7 @@
       <c r="R2">
         <v>71908</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>14381600</v>
       </c>
       <c r="T2">
@@ -660,7 +1993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -715,7 +2048,7 @@
       <c r="R3">
         <v>34515.75</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>69031500</v>
       </c>
       <c r="T3">
@@ -728,7 +2061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -783,7 +2116,7 @@
       <c r="R4">
         <v>66377</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>132754000</v>
       </c>
       <c r="T4">
@@ -796,7 +2129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -851,7 +2184,7 @@
       <c r="R5">
         <v>10653.083333333299</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>639185000</v>
       </c>
       <c r="T5">
@@ -864,7 +2197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -919,7 +2252,7 @@
       <c r="R6">
         <v>123271</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>677990500</v>
       </c>
       <c r="T6">
@@ -932,7 +2265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -987,7 +2320,7 @@
       <c r="R7">
         <v>15396.333333333299</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>18475600</v>
       </c>
       <c r="T7">
@@ -997,10 +2330,10 @@
         <v>26</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +2388,7 @@
       <c r="R8">
         <v>88682.5</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>88682500</v>
       </c>
       <c r="T8">
@@ -1065,10 +2398,10 @@
         <v>26</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +2456,7 @@
       <c r="R9">
         <v>85271.5</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>170543000</v>
       </c>
       <c r="T9">
@@ -1133,10 +2466,10 @@
         <v>26</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +2524,7 @@
       <c r="R10">
         <v>82114</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>821140000</v>
       </c>
       <c r="T10">
@@ -1201,10 +2534,10 @@
         <v>26</v>
       </c>
       <c r="V10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +2592,7 @@
       <c r="R11">
         <v>158360</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>870980000</v>
       </c>
       <c r="T11">
@@ -1269,10 +2602,10 @@
         <v>26</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +2660,7 @@
       <c r="R12">
         <v>110894.5</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>22178900</v>
       </c>
       <c r="T12">
@@ -1337,10 +2670,10 @@
         <v>26</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1395,7 +2728,7 @@
       <c r="R13">
         <v>17743</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>106458000</v>
       </c>
       <c r="T13">
@@ -1405,10 +2738,10 @@
         <v>26</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1463,7 +2796,7 @@
       <c r="R14">
         <v>102364.5</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>204729000</v>
       </c>
       <c r="T14">
@@ -1473,10 +2806,10 @@
         <v>26</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +2864,7 @@
       <c r="R15">
         <v>16428.833333333299</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>985730000</v>
       </c>
       <c r="T15">
@@ -1541,10 +2874,10 @@
         <v>26</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1599,7 +2932,7 @@
       <c r="R16">
         <v>47526.25</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>1045577500</v>
       </c>
       <c r="T16">
@@ -1609,10 +2942,10 @@
         <v>26</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +3000,7 @@
       <c r="R17">
         <v>133259.5</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>26651900</v>
       </c>
       <c r="T17">
@@ -1677,10 +3010,10 @@
         <v>26</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1735,7 +3068,7 @@
       <c r="R18">
         <v>21321.583333333299</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>127929500</v>
       </c>
       <c r="T18">
@@ -1745,10 +3078,10 @@
         <v>26</v>
       </c>
       <c r="V18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +3136,7 @@
       <c r="R19">
         <v>20501.333333333299</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>246016000</v>
       </c>
       <c r="T19">
@@ -1813,10 +3146,10 @@
         <v>26</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1871,7 +3204,7 @@
       <c r="R20">
         <v>236906</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>1184530000</v>
       </c>
       <c r="T20">
@@ -1881,10 +3214,10 @@
         <v>26</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +3272,7 @@
       <c r="R21">
         <v>228444</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>1256442000</v>
       </c>
       <c r="T21">
@@ -1949,10 +3282,10 @@
         <v>26</v>
       </c>
       <c r="V21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +3340,7 @@
       <c r="R22">
         <v>16667.833333333299</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>20001400</v>
       </c>
       <c r="T22">
@@ -2020,7 +3353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +3408,7 @@
       <c r="R23">
         <v>16001.083333333299</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>96006500</v>
       </c>
       <c r="T23">
@@ -2088,7 +3421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +3476,7 @@
       <c r="R24">
         <v>15385.583333333299</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>184627000</v>
       </c>
       <c r="T24">
@@ -2156,7 +3489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2211,7 +3544,7 @@
       <c r="R25">
         <v>44447.5</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>888950000</v>
       </c>
       <c r="T25">
@@ -2224,7 +3557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2279,7 +3612,7 @@
       <c r="R26">
         <v>42859.75</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>942914500</v>
       </c>
       <c r="T26">
@@ -2292,7 +3625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +3680,7 @@
       <c r="R27">
         <v>64189.25</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>25675700</v>
       </c>
       <c r="T27">
@@ -2357,10 +3690,10 @@
         <v>27</v>
       </c>
       <c r="V27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2415,7 +3748,7 @@
       <c r="R28">
         <v>123244</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>123244000</v>
       </c>
       <c r="T28">
@@ -2425,10 +3758,10 @@
         <v>27</v>
       </c>
       <c r="V28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +3816,7 @@
       <c r="R29">
         <v>59251.75</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>237007000</v>
       </c>
       <c r="T29">
@@ -2493,10 +3826,10 @@
         <v>27</v>
       </c>
       <c r="V29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2551,7 +3884,7 @@
       <c r="R30">
         <v>114114.5</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>1141145000</v>
       </c>
       <c r="T30">
@@ -2561,10 +3894,10 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2619,7 +3952,7 @@
       <c r="R31">
         <v>220079</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>1210434500</v>
       </c>
       <c r="T31">
@@ -2629,10 +3962,10 @@
         <v>27</v>
       </c>
       <c r="V31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +4020,7 @@
       <c r="R32">
         <v>153984.5</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>30796900</v>
       </c>
       <c r="T32">
@@ -2697,10 +4030,10 @@
         <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2755,7 +4088,7 @@
       <c r="R33">
         <v>73912.75</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>147825500</v>
       </c>
       <c r="T33">
@@ -2765,10 +4098,10 @@
         <v>27</v>
       </c>
       <c r="V33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2823,7 +4156,7 @@
       <c r="R34">
         <v>284281</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>284281000</v>
       </c>
       <c r="T34">
@@ -2833,10 +4166,10 @@
         <v>27</v>
       </c>
       <c r="V34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +4224,7 @@
       <c r="R35">
         <v>273753</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>1368765000</v>
       </c>
       <c r="T35">
@@ -2901,10 +4234,10 @@
         <v>27</v>
       </c>
       <c r="V35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2959,7 +4292,7 @@
       <c r="R36">
         <v>131987.5</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>1451862500</v>
       </c>
       <c r="T36">
@@ -2969,10 +4302,10 @@
         <v>27</v>
       </c>
       <c r="V36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -3027,7 +4360,7 @@
       <c r="R37">
         <v>92332</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="1">
         <v>36932800</v>
       </c>
       <c r="T37">
@@ -3037,10 +4370,10 @@
         <v>27</v>
       </c>
       <c r="V37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3095,7 +4428,7 @@
       <c r="R38">
         <v>177277</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>177277000</v>
       </c>
       <c r="T38">
@@ -3105,10 +4438,10 @@
         <v>27</v>
       </c>
       <c r="V38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +4496,7 @@
       <c r="R39">
         <v>85229.5</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="1">
         <v>340918000</v>
       </c>
       <c r="T39">
@@ -3173,10 +4506,10 @@
         <v>27</v>
       </c>
       <c r="V39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +4564,7 @@
       <c r="R40">
         <v>82072.75</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>1641455000</v>
       </c>
       <c r="T40">
@@ -3241,10 +4574,10 @@
         <v>27</v>
       </c>
       <c r="V40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -3299,7 +4632,7 @@
       <c r="R41">
         <v>158283</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="1">
         <v>1741113000</v>
       </c>
       <c r="T41">
@@ -3309,10 +4642,10 @@
         <v>27</v>
       </c>
       <c r="V41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3367,7 +4700,7 @@
       <c r="R42">
         <v>71908.25</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="1">
         <v>28763300</v>
       </c>
       <c r="T42">
@@ -3380,7 +4713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3435,7 +4768,7 @@
       <c r="R43">
         <v>138063.5</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>138063500</v>
       </c>
       <c r="T43">
@@ -3448,7 +4781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -3503,7 +4836,7 @@
       <c r="R44">
         <v>265507</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="1">
         <v>265507000</v>
       </c>
       <c r="T44">
@@ -3516,7 +4849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -3571,7 +4904,7 @@
       <c r="R45">
         <v>21306.166666666701</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="1">
         <v>1278370000</v>
       </c>
       <c r="T45">
@@ -3584,7 +4917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -3639,7 +4972,7 @@
       <c r="R46">
         <v>20545.166666666701</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="1">
         <v>1355981000</v>
       </c>
       <c r="T46">
@@ -3652,7 +4985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -3707,7 +5040,7 @@
       <c r="R47">
         <v>92377.5</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="1">
         <v>36951000</v>
       </c>
       <c r="T47">
@@ -3717,10 +5050,10 @@
         <v>28</v>
       </c>
       <c r="V47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -3775,7 +5108,7 @@
       <c r="R48">
         <v>354729</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="1">
         <v>177364500</v>
       </c>
       <c r="T48">
@@ -3785,10 +5118,10 @@
         <v>28</v>
       </c>
       <c r="V48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -3843,7 +5176,7 @@
       <c r="R49">
         <v>85271.75</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="1">
         <v>341087000</v>
       </c>
       <c r="T49">
@@ -3853,10 +5186,10 @@
         <v>28</v>
       </c>
       <c r="V49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +5244,7 @@
       <c r="R50">
         <v>328453</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="1">
         <v>1642265000</v>
       </c>
       <c r="T50">
@@ -3921,10 +5254,10 @@
         <v>28</v>
       </c>
       <c r="V50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -3979,7 +5312,7 @@
       <c r="R51">
         <v>79180.75</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="1">
         <v>1741976500</v>
       </c>
       <c r="T51">
@@ -3989,10 +5322,10 @@
         <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -4047,7 +5380,7 @@
       <c r="R52">
         <v>110894</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="1">
         <v>44357600</v>
       </c>
       <c r="T52">
@@ -4057,10 +5390,10 @@
         <v>28</v>
       </c>
       <c r="V52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -4115,7 +5448,7 @@
       <c r="R53">
         <v>106458.5</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="1">
         <v>212917000</v>
       </c>
       <c r="T53">
@@ -4125,10 +5458,10 @@
         <v>28</v>
       </c>
       <c r="V53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +5516,7 @@
       <c r="R54">
         <v>34121.25</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="1">
         <v>409455000</v>
       </c>
       <c r="T54">
@@ -4193,10 +5526,10 @@
         <v>28</v>
       </c>
       <c r="V54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -4251,7 +5584,7 @@
       <c r="R55">
         <v>197145</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="1">
         <v>1971450000</v>
       </c>
       <c r="T55">
@@ -4261,10 +5594,10 @@
         <v>28</v>
       </c>
       <c r="V55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -4319,7 +5652,7 @@
       <c r="R56">
         <v>95052</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="1">
         <v>2091144000</v>
       </c>
       <c r="T56">
@@ -4329,10 +5662,10 @@
         <v>28</v>
       </c>
       <c r="V56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +5720,7 @@
       <c r="R57">
         <v>133259.5</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="1">
         <v>53303800</v>
       </c>
       <c r="T57">
@@ -4397,10 +5730,10 @@
         <v>28</v>
       </c>
       <c r="V57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -4455,7 +5788,7 @@
       <c r="R58">
         <v>127929</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="1">
         <v>255858000</v>
       </c>
       <c r="T58">
@@ -4465,10 +5798,10 @@
         <v>28</v>
       </c>
       <c r="V58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -4523,7 +5856,7 @@
       <c r="R59">
         <v>123008.75</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="1">
         <v>492035000</v>
       </c>
       <c r="T59">
@@ -4533,10 +5866,10 @@
         <v>28</v>
       </c>
       <c r="V59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -4591,7 +5924,7 @@
       <c r="R60">
         <v>118453</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="1">
         <v>2369060000</v>
       </c>
       <c r="T60">
@@ -4601,10 +5934,10 @@
         <v>28</v>
       </c>
       <c r="V60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -4659,7 +5992,7 @@
       <c r="R61">
         <v>114222.5</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="1">
         <v>2512895000</v>
       </c>
       <c r="T61">
@@ -4669,10 +6002,10 @@
         <v>28</v>
       </c>
       <c r="V61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -4727,7 +6060,7 @@
       <c r="R62">
         <v>156619</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="1">
         <v>31323800</v>
       </c>
       <c r="T62">
@@ -4737,10 +6070,10 @@
         <v>29</v>
       </c>
       <c r="V62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -4795,7 +6128,7 @@
       <c r="R63">
         <v>300709</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="1">
         <v>150354500</v>
       </c>
       <c r="T63">
@@ -4805,10 +6138,10 @@
         <v>29</v>
       </c>
       <c r="V63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -4863,7 +6196,7 @@
       <c r="R64">
         <v>289143</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="1">
         <v>289143000</v>
       </c>
       <c r="T64">
@@ -4873,10 +6206,10 @@
         <v>29</v>
       </c>
       <c r="V64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -4931,7 +6264,7 @@
       <c r="R65">
         <v>69608.5</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="1">
         <v>1392170000</v>
       </c>
       <c r="T65">
@@ -4941,10 +6274,10 @@
         <v>29</v>
       </c>
       <c r="V65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -4999,7 +6332,7 @@
       <c r="R66">
         <v>134245</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="1">
         <v>1476695000</v>
       </c>
       <c r="T66">
@@ -5009,10 +6342,10 @@
         <v>29</v>
       </c>
       <c r="V66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -5067,7 +6400,7 @@
       <c r="R67">
         <v>100529</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>40211600</v>
       </c>
       <c r="T67">
@@ -5077,10 +6410,10 @@
         <v>29</v>
       </c>
       <c r="V67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -5135,7 +6468,7 @@
       <c r="R68">
         <v>193015</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="1">
         <v>193015000</v>
       </c>
       <c r="T68">
@@ -5145,10 +6478,10 @@
         <v>29</v>
       </c>
       <c r="V68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -5203,7 +6536,7 @@
       <c r="R69">
         <v>92796</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="1">
         <v>371184000</v>
       </c>
       <c r="T69">
@@ -5213,10 +6546,10 @@
         <v>29</v>
       </c>
       <c r="V69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -5271,7 +6604,7 @@
       <c r="R70">
         <v>89359</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="1">
         <v>1787180000</v>
       </c>
       <c r="T70">
@@ -5281,10 +6614,10 @@
         <v>29</v>
       </c>
       <c r="V70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -5339,7 +6672,7 @@
       <c r="R71">
         <v>28722.416666666701</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="1">
         <v>1895679500</v>
       </c>
       <c r="T71">
@@ -5349,10 +6682,10 @@
         <v>29</v>
       </c>
       <c r="V71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -5407,7 +6740,7 @@
       <c r="R72">
         <v>483409</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="1">
         <v>48340900</v>
       </c>
       <c r="T72">
@@ -5417,10 +6750,10 @@
         <v>29</v>
       </c>
       <c r="V72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -5475,7 +6808,7 @@
       <c r="R73">
         <v>232036</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="1">
         <v>232036000</v>
       </c>
       <c r="T73">
@@ -5485,10 +6818,10 @@
         <v>29</v>
       </c>
       <c r="V73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -5543,7 +6876,7 @@
       <c r="R74">
         <v>37185.333333333299</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="1">
         <v>446224000</v>
       </c>
       <c r="T74">
@@ -5553,10 +6886,10 @@
         <v>29</v>
       </c>
       <c r="V74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -5611,7 +6944,7 @@
       <c r="R75">
         <v>35808.083333333299</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="1">
         <v>2148485000</v>
       </c>
       <c r="T75">
@@ -5621,10 +6954,10 @@
         <v>29</v>
       </c>
       <c r="V75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -5679,7 +7012,7 @@
       <c r="R76">
         <v>207175.5</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="1">
         <v>2278930500</v>
       </c>
       <c r="T76">
@@ -5689,10 +7022,10 @@
         <v>29</v>
       </c>
       <c r="V76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -5747,7 +7080,7 @@
       <c r="R77">
         <v>48584</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="1">
         <v>58300800</v>
       </c>
       <c r="T77">
@@ -5757,10 +7090,10 @@
         <v>29</v>
       </c>
       <c r="V77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -5815,7 +7148,7 @@
       <c r="R78">
         <v>559687</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="1">
         <v>279843500</v>
       </c>
       <c r="T78">
@@ -5825,10 +7158,10 @@
         <v>29</v>
       </c>
       <c r="V78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -5883,7 +7216,7 @@
       <c r="R79">
         <v>44846.583333333299</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="1">
         <v>538159000</v>
       </c>
       <c r="T79">
@@ -5893,10 +7226,10 @@
         <v>29</v>
       </c>
       <c r="V79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -5951,7 +7284,7 @@
       <c r="R80">
         <v>43185.75</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="1">
         <v>2591145000</v>
       </c>
       <c r="T80">
@@ -5961,10 +7294,10 @@
         <v>29</v>
       </c>
       <c r="V80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -6019,7 +7352,7 @@
       <c r="R81">
         <v>249861</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="1">
         <v>2748471000</v>
       </c>
       <c r="T81">
@@ -6029,12 +7362,63 @@
         <v>29</v>
       </c>
       <c r="V81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2577A8A-3111-4F3F-85FF-ACD557F1E2A3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6048,17 +7432,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3aec2603-24a0-491a-809b-d6c7badc813e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c8936e00-c3ac-4c42-aa24-65d953c54a25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010079F69468EFA9FF4EA610EF5B74997902" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="83cc89cb67068eb69c0afb60c0012489">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aec2603-24a0-491a-809b-d6c7badc813e" xmlns:ns3="c8936e00-c3ac-4c42-aa24-65d953c54a25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b095cc599d6bbda4ded16e4e074801a0" ns2:_="" ns3:_="">
     <xsd:import namespace="3aec2603-24a0-491a-809b-d6c7badc813e"/>
@@ -6275,6 +7648,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3aec2603-24a0-491a-809b-d6c7badc813e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c8936e00-c3ac-4c42-aa24-65d953c54a25" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAADA5A0-3EE0-4B4B-B2C7-185EA28905C7}">
   <ds:schemaRefs>
@@ -6284,17 +7668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61ED9210-5C27-476E-BFBE-45057404014E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3aec2603-24a0-491a-809b-d6c7badc813e"/>
-    <ds:schemaRef ds:uri="c8936e00-c3ac-4c42-aa24-65d953c54a25"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE09C52A-8B83-4A5E-B589-D74BDB2E7045}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6311,4 +7684,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61ED9210-5C27-476E-BFBE-45057404014E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3aec2603-24a0-491a-809b-d6c7badc813e"/>
+    <ds:schemaRef ds:uri="c8936e00-c3ac-4c42-aa24-65d953c54a25"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sabana Tarifación Planes Cerrados.xlsx
+++ b/Sabana Tarifación Planes Cerrados.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QV4097\Documents\vergara\Tarifacion2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC427FB7-957C-4A53-BB12-605DF0B9B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5DAAED-0C68-4607-95F9-9150F4AC962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B13591-668B-9644-9949-56521285F75A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B13591-668B-9644-9949-56521285F75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Cerrado 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="tasas_ap">'[1]Primas - Controles'!#REF!</definedName>
@@ -25,10 +26,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19709" uniqueCount="184">
   <si>
     <t>Cant asegurados</t>
   </si>
@@ -144,6 +145,450 @@
   </si>
   <si>
     <t>Cuenta de ESTADO</t>
+  </si>
+  <si>
+    <t>TotalPrima</t>
+  </si>
+  <si>
+    <t>TotalPrimaMensual</t>
+  </si>
+  <si>
+    <t>nul</t>
+  </si>
+  <si>
+    <t>14381600,00</t>
+  </si>
+  <si>
+    <t>7190800,00</t>
+  </si>
+  <si>
+    <t>69031500,00</t>
+  </si>
+  <si>
+    <t>17257875,00</t>
+  </si>
+  <si>
+    <t>132754000,00</t>
+  </si>
+  <si>
+    <t>66377000,00</t>
+  </si>
+  <si>
+    <t>639185000,00</t>
+  </si>
+  <si>
+    <t>53265416,67</t>
+  </si>
+  <si>
+    <t>677990500,00</t>
+  </si>
+  <si>
+    <t>18478300,00</t>
+  </si>
+  <si>
+    <t>1539858,33</t>
+  </si>
+  <si>
+    <t>88695500,00</t>
+  </si>
+  <si>
+    <t>44347750,00</t>
+  </si>
+  <si>
+    <t>170568000,00</t>
+  </si>
+  <si>
+    <t>85284000,00</t>
+  </si>
+  <si>
+    <t>821260000,00</t>
+  </si>
+  <si>
+    <t>410630000,00</t>
+  </si>
+  <si>
+    <t>871112000,00</t>
+  </si>
+  <si>
+    <t>22176700,00</t>
+  </si>
+  <si>
+    <t>11088350,00</t>
+  </si>
+  <si>
+    <t>106447500,00</t>
+  </si>
+  <si>
+    <t>8870625,00</t>
+  </si>
+  <si>
+    <t>204708000,00</t>
+  </si>
+  <si>
+    <t>102354000,00</t>
+  </si>
+  <si>
+    <t>985630000,00</t>
+  </si>
+  <si>
+    <t>82135833,33</t>
+  </si>
+  <si>
+    <t>1045473000,00</t>
+  </si>
+  <si>
+    <t>261368250,00</t>
+  </si>
+  <si>
+    <t>26651200,00</t>
+  </si>
+  <si>
+    <t>13325600,00</t>
+  </si>
+  <si>
+    <t>127926000,00</t>
+  </si>
+  <si>
+    <t>10660500,00</t>
+  </si>
+  <si>
+    <t>246010000,00</t>
+  </si>
+  <si>
+    <t>20500833,33</t>
+  </si>
+  <si>
+    <t>1184500000,00</t>
+  </si>
+  <si>
+    <t>1256409000,00</t>
+  </si>
+  <si>
+    <t>20001400,00</t>
+  </si>
+  <si>
+    <t>1666783,33</t>
+  </si>
+  <si>
+    <t>96006500,00</t>
+  </si>
+  <si>
+    <t>8000541,67</t>
+  </si>
+  <si>
+    <t>184627000,00</t>
+  </si>
+  <si>
+    <t>15385583,33</t>
+  </si>
+  <si>
+    <t>888950000,00</t>
+  </si>
+  <si>
+    <t>222237500,00</t>
+  </si>
+  <si>
+    <t>942914500,00</t>
+  </si>
+  <si>
+    <t>235728625,00</t>
+  </si>
+  <si>
+    <t>25679500,00</t>
+  </si>
+  <si>
+    <t>6419875,00</t>
+  </si>
+  <si>
+    <t>123261500,00</t>
+  </si>
+  <si>
+    <t>61630750,00</t>
+  </si>
+  <si>
+    <t>237042000,00</t>
+  </si>
+  <si>
+    <t>59260500,00</t>
+  </si>
+  <si>
+    <t>1141315000,00</t>
+  </si>
+  <si>
+    <t>570657500,00</t>
+  </si>
+  <si>
+    <t>1210610500,00</t>
+  </si>
+  <si>
+    <t>30793800,00</t>
+  </si>
+  <si>
+    <t>15396900,00</t>
+  </si>
+  <si>
+    <t>147810500,00</t>
+  </si>
+  <si>
+    <t>36952625,00</t>
+  </si>
+  <si>
+    <t>284252000,00</t>
+  </si>
+  <si>
+    <t>1368625000,00</t>
+  </si>
+  <si>
+    <t>1451714000,00</t>
+  </si>
+  <si>
+    <t>725857000,00</t>
+  </si>
+  <si>
+    <t>36931900,00</t>
+  </si>
+  <si>
+    <t>9232975,00</t>
+  </si>
+  <si>
+    <t>177272500,00</t>
+  </si>
+  <si>
+    <t>88636250,00</t>
+  </si>
+  <si>
+    <t>340909000,00</t>
+  </si>
+  <si>
+    <t>85227250,00</t>
+  </si>
+  <si>
+    <t>1641415000,00</t>
+  </si>
+  <si>
+    <t>410353750,00</t>
+  </si>
+  <si>
+    <t>1741069000,00</t>
+  </si>
+  <si>
+    <t>870534500,00</t>
+  </si>
+  <si>
+    <t>28763300,00</t>
+  </si>
+  <si>
+    <t>7190825,00</t>
+  </si>
+  <si>
+    <t>138063500,00</t>
+  </si>
+  <si>
+    <t>69031750,00</t>
+  </si>
+  <si>
+    <t>265507000,00</t>
+  </si>
+  <si>
+    <t>1278370000,00</t>
+  </si>
+  <si>
+    <t>106530833,33</t>
+  </si>
+  <si>
+    <t>1355981000,00</t>
+  </si>
+  <si>
+    <t>112998416,67</t>
+  </si>
+  <si>
+    <t>36956400,00</t>
+  </si>
+  <si>
+    <t>9239100,00</t>
+  </si>
+  <si>
+    <t>177390500,00</t>
+  </si>
+  <si>
+    <t>341137000,00</t>
+  </si>
+  <si>
+    <t>85284250,00</t>
+  </si>
+  <si>
+    <t>1642505000,00</t>
+  </si>
+  <si>
+    <t>1742229500,00</t>
+  </si>
+  <si>
+    <t>435557375,00</t>
+  </si>
+  <si>
+    <t>44353100,00</t>
+  </si>
+  <si>
+    <t>11088275,00</t>
+  </si>
+  <si>
+    <t>212895500,00</t>
+  </si>
+  <si>
+    <t>53223875,00</t>
+  </si>
+  <si>
+    <t>409414000,00</t>
+  </si>
+  <si>
+    <t>34117833,33</t>
+  </si>
+  <si>
+    <t>1971255000,00</t>
+  </si>
+  <si>
+    <t>985627500,00</t>
+  </si>
+  <si>
+    <t>2090935000,00</t>
+  </si>
+  <si>
+    <t>522733750,00</t>
+  </si>
+  <si>
+    <t>53302400,00</t>
+  </si>
+  <si>
+    <t>255851500,00</t>
+  </si>
+  <si>
+    <t>63962875,00</t>
+  </si>
+  <si>
+    <t>492022000,00</t>
+  </si>
+  <si>
+    <t>123005500,00</t>
+  </si>
+  <si>
+    <t>2369000000,00</t>
+  </si>
+  <si>
+    <t>592250000,00</t>
+  </si>
+  <si>
+    <t>2512829000,00</t>
+  </si>
+  <si>
+    <t>628207250,00</t>
+  </si>
+  <si>
+    <t>34382900,00</t>
+  </si>
+  <si>
+    <t>17191450,00</t>
+  </si>
+  <si>
+    <t>165038000,00</t>
+  </si>
+  <si>
+    <t>317381000,00</t>
+  </si>
+  <si>
+    <t>1528130000,00</t>
+  </si>
+  <si>
+    <t>382032500,00</t>
+  </si>
+  <si>
+    <t>1620910500,00</t>
+  </si>
+  <si>
+    <t>810455250,00</t>
+  </si>
+  <si>
+    <t>44157800,00</t>
+  </si>
+  <si>
+    <t>11039450,00</t>
+  </si>
+  <si>
+    <t>211957000,00</t>
+  </si>
+  <si>
+    <t>105978500,00</t>
+  </si>
+  <si>
+    <t>407611000,00</t>
+  </si>
+  <si>
+    <t>101902750,00</t>
+  </si>
+  <si>
+    <t>1962570000,00</t>
+  </si>
+  <si>
+    <t>490642500,00</t>
+  </si>
+  <si>
+    <t>2081722500,00</t>
+  </si>
+  <si>
+    <t>173476875,00</t>
+  </si>
+  <si>
+    <t>52970600,00</t>
+  </si>
+  <si>
+    <t>254258500,00</t>
+  </si>
+  <si>
+    <t>127129250,00</t>
+  </si>
+  <si>
+    <t>488960000,00</t>
+  </si>
+  <si>
+    <t>40746666,67</t>
+  </si>
+  <si>
+    <t>2354245000,00</t>
+  </si>
+  <si>
+    <t>196187083,33</t>
+  </si>
+  <si>
+    <t>2497187000,00</t>
+  </si>
+  <si>
+    <t>1248593500,00</t>
+  </si>
+  <si>
+    <t>63583000,00</t>
+  </si>
+  <si>
+    <t>5298583,33</t>
+  </si>
+  <si>
+    <t>305198500,00</t>
+  </si>
+  <si>
+    <t>586920000,00</t>
+  </si>
+  <si>
+    <t>48910000,00</t>
+  </si>
+  <si>
+    <t>2825910000,00</t>
+  </si>
+  <si>
+    <t>235492500,00</t>
+  </si>
+  <si>
+    <t>2997483500,00</t>
+  </si>
+  <si>
+    <t>1498741750,00</t>
   </si>
 </sst>
 </file>
@@ -153,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -193,14 +638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -336,6 +780,34 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -369,6 +841,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2373-4173-B45B-D159A260F041}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -384,6 +861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2373-4173-B45B-D159A260F041}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1219,7 +1701,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="QV4097" refreshedDate="45049.892345949076" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{95E5621E-30DC-4D29-A46C-706B7659811A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="V1:V81" sheet="Plan Cerrado 1"/>
+    <worksheetSource ref="V1:V3" sheet="Plan Cerrado 1"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="ESTADO" numFmtId="0">
@@ -1483,7 +1965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A29EE32-02B7-4461-BC4E-445F73C8EDB4}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A29EE32-02B7-4461-BC4E-445F73C8EDB4}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1514,7 +1996,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de ESTADO" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -1529,6 +2011,30 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -1843,21 +2349,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D841E5DA-5C45-5145-97E1-44A8067B742F}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V81"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:X81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1924,8 +2431,14 @@
       <c r="V1" t="s">
         <v>30</v>
       </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2505,14 @@
       <c r="V2" t="s">
         <v>31</v>
       </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2579,14 @@
       <c r="V3" t="s">
         <v>31</v>
       </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2653,14 @@
       <c r="V4" t="s">
         <v>31</v>
       </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2727,14 @@
       <c r="V5" t="s">
         <v>31</v>
       </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2264,8 +2801,14 @@
       <c r="V6" t="s">
         <v>31</v>
       </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2875,14 @@
       <c r="V7" t="s">
         <v>32</v>
       </c>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2400,8 +2949,14 @@
       <c r="V8" t="s">
         <v>32</v>
       </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2468,8 +3023,14 @@
       <c r="V9" t="s">
         <v>32</v>
       </c>
+      <c r="W9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2536,8 +3097,14 @@
       <c r="V10" t="s">
         <v>32</v>
       </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2604,8 +3171,14 @@
       <c r="V11" t="s">
         <v>32</v>
       </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2672,8 +3245,14 @@
       <c r="V12" t="s">
         <v>32</v>
       </c>
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2740,8 +3319,14 @@
       <c r="V13" t="s">
         <v>32</v>
       </c>
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2808,8 +3393,14 @@
       <c r="V14" t="s">
         <v>32</v>
       </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2876,8 +3467,14 @@
       <c r="V15" t="s">
         <v>32</v>
       </c>
+      <c r="W15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2944,8 +3541,14 @@
       <c r="V16" t="s">
         <v>32</v>
       </c>
+      <c r="W16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3012,8 +3615,14 @@
       <c r="V17" t="s">
         <v>32</v>
       </c>
+      <c r="W17" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3080,8 +3689,14 @@
       <c r="V18" t="s">
         <v>32</v>
       </c>
+      <c r="W18" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3148,8 +3763,14 @@
       <c r="V19" t="s">
         <v>32</v>
       </c>
+      <c r="W19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3216,8 +3837,14 @@
       <c r="V20" t="s">
         <v>32</v>
       </c>
+      <c r="W20" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3284,8 +3911,14 @@
       <c r="V21" t="s">
         <v>32</v>
       </c>
+      <c r="W21" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3352,8 +3985,14 @@
       <c r="V22" t="s">
         <v>31</v>
       </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3420,8 +4059,14 @@
       <c r="V23" t="s">
         <v>31</v>
       </c>
+      <c r="W23" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3488,8 +4133,14 @@
       <c r="V24" t="s">
         <v>31</v>
       </c>
+      <c r="W24" t="s">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3556,8 +4207,14 @@
       <c r="V25" t="s">
         <v>31</v>
       </c>
+      <c r="W25" t="s">
+        <v>81</v>
+      </c>
+      <c r="X25" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3624,8 +4281,14 @@
       <c r="V26" t="s">
         <v>31</v>
       </c>
+      <c r="W26" t="s">
+        <v>83</v>
+      </c>
+      <c r="X26" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3692,8 +4355,14 @@
       <c r="V27" t="s">
         <v>32</v>
       </c>
+      <c r="W27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X27" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3760,8 +4429,14 @@
       <c r="V28" t="s">
         <v>32</v>
       </c>
+      <c r="W28" t="s">
+        <v>87</v>
+      </c>
+      <c r="X28" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3828,8 +4503,14 @@
       <c r="V29" t="s">
         <v>32</v>
       </c>
+      <c r="W29" t="s">
+        <v>89</v>
+      </c>
+      <c r="X29" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3896,8 +4577,14 @@
       <c r="V30" t="s">
         <v>32</v>
       </c>
+      <c r="W30" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3964,8 +4651,14 @@
       <c r="V31" t="s">
         <v>32</v>
       </c>
+      <c r="W31" t="s">
+        <v>93</v>
+      </c>
+      <c r="X31" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -4032,8 +4725,14 @@
       <c r="V32" t="s">
         <v>32</v>
       </c>
+      <c r="W32" t="s">
+        <v>94</v>
+      </c>
+      <c r="X32" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -4100,8 +4799,14 @@
       <c r="V33" t="s">
         <v>32</v>
       </c>
+      <c r="W33" t="s">
+        <v>96</v>
+      </c>
+      <c r="X33" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -4168,8 +4873,14 @@
       <c r="V34" t="s">
         <v>32</v>
       </c>
+      <c r="W34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X34" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -4236,8 +4947,14 @@
       <c r="V35" t="s">
         <v>32</v>
       </c>
+      <c r="W35" t="s">
+        <v>99</v>
+      </c>
+      <c r="X35" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4304,8 +5021,14 @@
       <c r="V36" t="s">
         <v>32</v>
       </c>
+      <c r="W36" t="s">
+        <v>100</v>
+      </c>
+      <c r="X36" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -4372,8 +5095,14 @@
       <c r="V37" t="s">
         <v>32</v>
       </c>
+      <c r="W37" t="s">
+        <v>102</v>
+      </c>
+      <c r="X37" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -4440,8 +5169,14 @@
       <c r="V38" t="s">
         <v>32</v>
       </c>
+      <c r="W38" t="s">
+        <v>104</v>
+      </c>
+      <c r="X38" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -4508,8 +5243,14 @@
       <c r="V39" t="s">
         <v>32</v>
       </c>
+      <c r="W39" t="s">
+        <v>106</v>
+      </c>
+      <c r="X39" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -4576,8 +5317,14 @@
       <c r="V40" t="s">
         <v>32</v>
       </c>
+      <c r="W40" t="s">
+        <v>108</v>
+      </c>
+      <c r="X40" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -4644,8 +5391,14 @@
       <c r="V41" t="s">
         <v>32</v>
       </c>
+      <c r="W41" t="s">
+        <v>110</v>
+      </c>
+      <c r="X41" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4712,8 +5465,14 @@
       <c r="V42" t="s">
         <v>31</v>
       </c>
+      <c r="W42" t="s">
+        <v>112</v>
+      </c>
+      <c r="X42" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -4780,8 +5539,14 @@
       <c r="V43" t="s">
         <v>31</v>
       </c>
+      <c r="W43" t="s">
+        <v>114</v>
+      </c>
+      <c r="X43" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -4848,8 +5613,14 @@
       <c r="V44" t="s">
         <v>31</v>
       </c>
+      <c r="W44" t="s">
+        <v>116</v>
+      </c>
+      <c r="X44" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -4916,8 +5687,14 @@
       <c r="V45" t="s">
         <v>31</v>
       </c>
+      <c r="W45" t="s">
+        <v>117</v>
+      </c>
+      <c r="X45" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -4984,8 +5761,14 @@
       <c r="V46" t="s">
         <v>31</v>
       </c>
+      <c r="W46" t="s">
+        <v>119</v>
+      </c>
+      <c r="X46" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -5052,8 +5835,14 @@
       <c r="V47" t="s">
         <v>32</v>
       </c>
+      <c r="W47" t="s">
+        <v>121</v>
+      </c>
+      <c r="X47" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -5120,8 +5909,14 @@
       <c r="V48" t="s">
         <v>32</v>
       </c>
+      <c r="W48" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -5188,8 +5983,14 @@
       <c r="V49" t="s">
         <v>32</v>
       </c>
+      <c r="W49" t="s">
+        <v>124</v>
+      </c>
+      <c r="X49" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -5256,8 +6057,14 @@
       <c r="V50" t="s">
         <v>32</v>
       </c>
+      <c r="W50" t="s">
+        <v>126</v>
+      </c>
+      <c r="X50" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -5324,8 +6131,14 @@
       <c r="V51" t="s">
         <v>32</v>
       </c>
+      <c r="W51" t="s">
+        <v>127</v>
+      </c>
+      <c r="X51" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -5392,8 +6205,14 @@
       <c r="V52" t="s">
         <v>32</v>
       </c>
+      <c r="W52" t="s">
+        <v>129</v>
+      </c>
+      <c r="X52" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -5460,8 +6279,14 @@
       <c r="V53" t="s">
         <v>32</v>
       </c>
+      <c r="W53" t="s">
+        <v>131</v>
+      </c>
+      <c r="X53" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -5528,8 +6353,14 @@
       <c r="V54" t="s">
         <v>32</v>
       </c>
+      <c r="W54" t="s">
+        <v>133</v>
+      </c>
+      <c r="X54" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -5596,8 +6427,14 @@
       <c r="V55" t="s">
         <v>32</v>
       </c>
+      <c r="W55" t="s">
+        <v>135</v>
+      </c>
+      <c r="X55" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -5664,8 +6501,14 @@
       <c r="V56" t="s">
         <v>32</v>
       </c>
+      <c r="W56" t="s">
+        <v>137</v>
+      </c>
+      <c r="X56" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -5732,8 +6575,14 @@
       <c r="V57" t="s">
         <v>32</v>
       </c>
+      <c r="W57" t="s">
+        <v>139</v>
+      </c>
+      <c r="X57" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -5800,8 +6649,14 @@
       <c r="V58" t="s">
         <v>32</v>
       </c>
+      <c r="W58" t="s">
+        <v>140</v>
+      </c>
+      <c r="X58" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -5868,8 +6723,14 @@
       <c r="V59" t="s">
         <v>32</v>
       </c>
+      <c r="W59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X59" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -5936,8 +6797,14 @@
       <c r="V60" t="s">
         <v>32</v>
       </c>
+      <c r="W60" t="s">
+        <v>144</v>
+      </c>
+      <c r="X60" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -6004,8 +6871,14 @@
       <c r="V61" t="s">
         <v>32</v>
       </c>
+      <c r="W61" t="s">
+        <v>146</v>
+      </c>
+      <c r="X61" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -6072,8 +6945,14 @@
       <c r="V62" t="s">
         <v>32</v>
       </c>
+      <c r="W62" t="s">
+        <v>148</v>
+      </c>
+      <c r="X62" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -6140,8 +7019,14 @@
       <c r="V63" t="s">
         <v>32</v>
       </c>
+      <c r="W63" t="s">
+        <v>150</v>
+      </c>
+      <c r="X63" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -6208,8 +7093,14 @@
       <c r="V64" t="s">
         <v>32</v>
       </c>
+      <c r="W64" t="s">
+        <v>151</v>
+      </c>
+      <c r="X64" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -6276,8 +7167,14 @@
       <c r="V65" t="s">
         <v>32</v>
       </c>
+      <c r="W65" t="s">
+        <v>152</v>
+      </c>
+      <c r="X65" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -6344,8 +7241,14 @@
       <c r="V66" t="s">
         <v>32</v>
       </c>
+      <c r="W66" t="s">
+        <v>154</v>
+      </c>
+      <c r="X66" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -6412,8 +7315,14 @@
       <c r="V67" t="s">
         <v>32</v>
       </c>
+      <c r="W67" t="s">
+        <v>156</v>
+      </c>
+      <c r="X67" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -6480,8 +7389,14 @@
       <c r="V68" t="s">
         <v>32</v>
       </c>
+      <c r="W68" t="s">
+        <v>158</v>
+      </c>
+      <c r="X68" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -6548,8 +7463,14 @@
       <c r="V69" t="s">
         <v>32</v>
       </c>
+      <c r="W69" t="s">
+        <v>160</v>
+      </c>
+      <c r="X69" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -6616,8 +7537,14 @@
       <c r="V70" t="s">
         <v>32</v>
       </c>
+      <c r="W70" t="s">
+        <v>162</v>
+      </c>
+      <c r="X70" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -6684,8 +7611,14 @@
       <c r="V71" t="s">
         <v>32</v>
       </c>
+      <c r="W71" t="s">
+        <v>164</v>
+      </c>
+      <c r="X71" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -6752,8 +7685,14 @@
       <c r="V72" t="s">
         <v>32</v>
       </c>
+      <c r="W72" t="s">
+        <v>166</v>
+      </c>
+      <c r="X72" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -6820,8 +7759,14 @@
       <c r="V73" t="s">
         <v>32</v>
       </c>
+      <c r="W73" t="s">
+        <v>167</v>
+      </c>
+      <c r="X73" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -6888,8 +7833,14 @@
       <c r="V74" t="s">
         <v>32</v>
       </c>
+      <c r="W74" t="s">
+        <v>169</v>
+      </c>
+      <c r="X74" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -6956,8 +7907,14 @@
       <c r="V75" t="s">
         <v>32</v>
       </c>
+      <c r="W75" t="s">
+        <v>171</v>
+      </c>
+      <c r="X75" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -7024,8 +7981,14 @@
       <c r="V76" t="s">
         <v>32</v>
       </c>
+      <c r="W76" t="s">
+        <v>173</v>
+      </c>
+      <c r="X76" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -7092,8 +8055,14 @@
       <c r="V77" t="s">
         <v>32</v>
       </c>
+      <c r="W77" t="s">
+        <v>175</v>
+      </c>
+      <c r="X77" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -7160,8 +8129,14 @@
       <c r="V78" t="s">
         <v>32</v>
       </c>
+      <c r="W78" t="s">
+        <v>177</v>
+      </c>
+      <c r="X78" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -7228,8 +8203,14 @@
       <c r="V79" t="s">
         <v>32</v>
       </c>
+      <c r="W79" t="s">
+        <v>178</v>
+      </c>
+      <c r="X79" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -7296,8 +8277,14 @@
       <c r="V80" t="s">
         <v>32</v>
       </c>
+      <c r="W80" t="s">
+        <v>180</v>
+      </c>
+      <c r="X80" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -7363,6 +8350,12 @@
       </c>
       <c r="V81" t="s">
         <v>32</v>
+      </c>
+      <c r="W81" t="s">
+        <v>182</v>
+      </c>
+      <c r="X81" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7372,6 +8365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2E590-D9DC-47AF-8CF1-DC4E25CE6AB9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2577A8A-3111-4F3F-85FF-ACD557F1E2A3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7379,12 +8386,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -7392,27 +8399,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>80</v>
       </c>
     </row>
@@ -7423,12 +8430,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3aec2603-24a0-491a-809b-d6c7badc813e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c8936e00-c3ac-4c42-aa24-65d953c54a25" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7649,20 +8658,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3aec2603-24a0-491a-809b-d6c7badc813e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c8936e00-c3ac-4c42-aa24-65d953c54a25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAADA5A0-3EE0-4B4B-B2C7-185EA28905C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61ED9210-5C27-476E-BFBE-45057404014E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3aec2603-24a0-491a-809b-d6c7badc813e"/>
+    <ds:schemaRef ds:uri="c8936e00-c3ac-4c42-aa24-65d953c54a25"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7687,12 +8697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61ED9210-5C27-476E-BFBE-45057404014E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAADA5A0-3EE0-4B4B-B2C7-185EA28905C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3aec2603-24a0-491a-809b-d6c7badc813e"/>
-    <ds:schemaRef ds:uri="c8936e00-c3ac-4c42-aa24-65d953c54a25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>